--- a/data-penerimaan-2025.xlsx
+++ b/data-penerimaan-2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEB5E1F-8E1D-49CC-B57E-B6C90E420E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18660708-80BD-4B94-8A7D-D295B41C1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,28 +122,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -154,27 +139,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,17 +487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,578 +539,580 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>178474981</v>
+        <v>178456330</v>
       </c>
       <c r="C2" s="1">
-        <v>177418467</v>
+        <v>184202200</v>
       </c>
       <c r="D2" s="1">
-        <v>192775500</v>
+        <v>180969295</v>
       </c>
       <c r="E2" s="1">
-        <v>180274610</v>
+        <v>160514855</v>
       </c>
       <c r="F2" s="1">
-        <v>178821949</v>
+        <v>163388420</v>
       </c>
       <c r="G2" s="1">
-        <v>177460024</v>
+        <v>160855880</v>
       </c>
       <c r="H2" s="1">
-        <v>177362031</v>
+        <v>168820360</v>
       </c>
       <c r="I2" s="1">
-        <v>178078834</v>
+        <v>176784840</v>
       </c>
       <c r="J2" s="1">
-        <v>177569450</v>
+        <v>172459160</v>
       </c>
       <c r="K2" s="1">
-        <v>176307240</v>
+        <v>175247920</v>
       </c>
       <c r="L2" s="1">
-        <v>180087239</v>
+        <f>182768350+100000000</f>
+        <v>282768350</v>
       </c>
       <c r="M2" s="1">
-        <v>181343549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <f>181482390+72312786</f>
+        <v>253795176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>99646691</v>
+        <v>99770060</v>
       </c>
       <c r="C3" s="1">
-        <v>99056815</v>
+        <v>103921540</v>
       </c>
       <c r="D3" s="1">
-        <v>178751626</v>
+        <v>102139190</v>
       </c>
       <c r="E3" s="1">
-        <v>100651465</v>
+        <v>90489910</v>
       </c>
       <c r="F3" s="1">
-        <v>99840411</v>
+        <v>92298440</v>
       </c>
       <c r="G3" s="1">
-        <v>99080017</v>
+        <v>90795760</v>
       </c>
       <c r="H3" s="1">
-        <v>99025306</v>
+        <v>95198920</v>
       </c>
       <c r="I3" s="1">
-        <v>99425513</v>
+        <v>99602080</v>
       </c>
       <c r="J3" s="1">
-        <v>99141112</v>
+        <v>97011720</v>
       </c>
       <c r="K3" s="1">
-        <v>98436391</v>
+        <v>98731160</v>
       </c>
       <c r="L3" s="1">
-        <v>100546852</v>
+        <v>103080150</v>
       </c>
       <c r="M3" s="1">
-        <v>101248279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102561070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>58242362</v>
+        <v>58314660</v>
       </c>
       <c r="C4" s="1">
-        <v>57897586</v>
+        <v>60684140</v>
       </c>
       <c r="D4" s="1">
-        <v>99801148</v>
+        <v>59440590</v>
       </c>
       <c r="E4" s="1">
-        <v>58829641</v>
+        <v>52376710</v>
       </c>
       <c r="F4" s="1">
-        <v>58355589</v>
+        <v>53405240</v>
       </c>
       <c r="G4" s="1">
-        <v>57911147</v>
+        <v>52509480</v>
       </c>
       <c r="H4" s="1">
-        <v>57879169</v>
+        <v>55089240</v>
       </c>
       <c r="I4" s="1">
-        <v>58113086</v>
+        <v>57668010</v>
       </c>
       <c r="J4" s="1">
-        <v>57946857</v>
+        <v>56465920</v>
       </c>
       <c r="K4" s="1">
-        <v>57534955</v>
+        <v>57461080</v>
       </c>
       <c r="L4" s="1">
-        <v>58768496</v>
+        <v>59933745</v>
       </c>
       <c r="M4" s="1">
-        <v>59178472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59141185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>16664720</v>
+        <v>16680000</v>
       </c>
       <c r="C5" s="1">
-        <v>16566070</v>
+        <v>17200000</v>
       </c>
       <c r="D5" s="1">
-        <v>58332640</v>
+        <v>16820000</v>
       </c>
       <c r="E5" s="1">
-        <v>16832756</v>
+        <v>14980000</v>
       </c>
       <c r="F5" s="1">
-        <v>16697117</v>
+        <v>15200000</v>
       </c>
       <c r="G5" s="1">
-        <v>16569950</v>
+        <v>14960000</v>
       </c>
       <c r="H5" s="1">
-        <v>16560800</v>
+        <v>15760000</v>
       </c>
       <c r="I5" s="1">
-        <v>16627730</v>
+        <v>16500000</v>
       </c>
       <c r="J5" s="1">
-        <v>16580168</v>
+        <v>16160000</v>
       </c>
       <c r="K5" s="1">
-        <v>16462311</v>
+        <v>16420000</v>
       </c>
       <c r="L5" s="1">
-        <v>16815261</v>
+        <v>17100000</v>
       </c>
       <c r="M5" s="1">
-        <v>16932566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16620000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>145474670</v>
+        <v>145728610</v>
       </c>
       <c r="C6" s="1">
-        <v>144613507</v>
+        <v>151601240</v>
       </c>
       <c r="D6" s="1">
-        <v>16690551</v>
+        <v>148851490</v>
       </c>
       <c r="E6" s="1">
-        <v>146941545</v>
+        <v>132149910</v>
       </c>
       <c r="F6" s="1">
-        <v>145757483</v>
+        <v>134597540</v>
       </c>
       <c r="G6" s="1">
-        <v>144647380</v>
+        <v>132845680</v>
       </c>
       <c r="H6" s="1">
-        <v>144567506</v>
+        <v>139471820</v>
       </c>
       <c r="I6" s="1">
-        <v>145151771</v>
+        <v>146098960</v>
       </c>
       <c r="J6" s="1">
-        <v>144736573</v>
+        <v>142382360</v>
       </c>
       <c r="K6" s="1">
-        <v>143707748</v>
+        <v>144831020</v>
       </c>
       <c r="L6" s="1">
-        <v>146788819</v>
+        <v>150822230</v>
       </c>
       <c r="M6" s="1">
-        <v>147812835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150017140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>4166180</v>
+        <v>4178000</v>
       </c>
       <c r="C7" s="1">
-        <v>4141517</v>
+        <v>4348000</v>
       </c>
       <c r="D7" s="1">
-        <v>145700163</v>
+        <v>4205000</v>
       </c>
       <c r="E7" s="1">
-        <v>4208189</v>
+        <v>3731000</v>
       </c>
       <c r="F7" s="1">
-        <v>4174279</v>
+        <v>3800000</v>
       </c>
       <c r="G7" s="1">
-        <v>4142488</v>
+        <v>3760000</v>
       </c>
       <c r="H7" s="1">
-        <v>4140200</v>
+        <v>3940000</v>
       </c>
       <c r="I7" s="1">
-        <v>4156933</v>
+        <v>4140000</v>
       </c>
       <c r="J7" s="1">
-        <v>4145042</v>
+        <v>4040000</v>
       </c>
       <c r="K7" s="1">
-        <v>4115578</v>
+        <v>4130000</v>
       </c>
       <c r="L7" s="1">
-        <v>4203815</v>
+        <v>4305000</v>
       </c>
       <c r="M7" s="1">
-        <v>4233142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4275000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>47994393</v>
+        <v>48046560</v>
       </c>
       <c r="C8" s="1">
-        <v>47710281</v>
+        <v>50089600</v>
       </c>
       <c r="D8" s="1">
-        <v>4172638</v>
+        <v>49095360</v>
       </c>
       <c r="E8" s="1">
-        <v>48478338</v>
+        <v>43046400</v>
       </c>
       <c r="F8" s="1">
-        <v>48087697</v>
+        <v>44608000</v>
       </c>
       <c r="G8" s="1">
-        <v>47721456</v>
+        <v>43315200</v>
       </c>
       <c r="H8" s="1">
-        <v>47695105</v>
+        <v>45388800</v>
       </c>
       <c r="I8" s="1">
-        <v>47887863</v>
+        <v>47462400</v>
       </c>
       <c r="J8" s="1">
-        <v>47750883</v>
+        <v>46425600</v>
       </c>
       <c r="K8" s="1">
-        <v>47411457</v>
+        <v>47355200</v>
       </c>
       <c r="L8" s="1">
-        <v>48427951</v>
+        <v>49785600</v>
       </c>
       <c r="M8" s="1">
-        <v>48765790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48980480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>16231437</v>
+        <v>16249200</v>
       </c>
       <c r="C9" s="1">
-        <v>16135352</v>
+        <v>16927000</v>
       </c>
       <c r="D9" s="1">
-        <v>48068786</v>
+        <v>16594000</v>
       </c>
       <c r="E9" s="1">
-        <v>16395104</v>
+        <v>14563000</v>
       </c>
       <c r="F9" s="1">
-        <v>16262992</v>
+        <v>15040000</v>
       </c>
       <c r="G9" s="1">
-        <v>16139131</v>
+        <v>14641000</v>
       </c>
       <c r="H9" s="1">
-        <v>16130220</v>
+        <v>15340000</v>
       </c>
       <c r="I9" s="1">
-        <v>16195409</v>
+        <v>16113000</v>
       </c>
       <c r="J9" s="1">
-        <v>16149083</v>
+        <v>15781000</v>
       </c>
       <c r="K9" s="1">
-        <v>16034291</v>
+        <v>15985000</v>
       </c>
       <c r="L9" s="1">
-        <v>16378064</v>
+        <v>16818000</v>
       </c>
       <c r="M9" s="1">
-        <v>16492319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16749800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>76657710</v>
+        <v>76036000</v>
       </c>
       <c r="C10" s="1">
-        <v>76203921</v>
+        <v>79288000</v>
       </c>
       <c r="D10" s="1">
-        <v>16256596</v>
+        <v>77792000</v>
       </c>
       <c r="E10" s="1">
-        <v>77430678</v>
+        <v>68908000</v>
       </c>
       <c r="F10" s="1">
-        <v>76806738</v>
+        <v>71445000</v>
       </c>
       <c r="G10" s="1">
-        <v>76221771</v>
+        <v>69984000</v>
       </c>
       <c r="H10" s="1">
-        <v>76179681</v>
+        <v>73016000</v>
       </c>
       <c r="I10" s="1">
-        <v>76487559</v>
+        <v>76048000</v>
       </c>
       <c r="J10" s="1">
-        <v>76268771</v>
+        <v>74352000</v>
       </c>
       <c r="K10" s="1">
-        <v>75726633</v>
+        <v>75624000</v>
       </c>
       <c r="L10" s="1">
-        <v>77350199</v>
+        <v>79460000</v>
       </c>
       <c r="M10" s="1">
-        <v>77889804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>78048000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>76776533</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>9271417</v>
+        <v>9282090</v>
       </c>
       <c r="C12" s="1">
-        <v>9216533</v>
+        <v>9673320</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>9458430</v>
       </c>
       <c r="E12" s="1">
-        <v>9364904</v>
+        <v>8350230</v>
       </c>
       <c r="F12" s="1">
-        <v>9289441</v>
+        <v>8515320</v>
       </c>
       <c r="G12" s="1">
-        <v>9218692</v>
+        <v>8400000</v>
       </c>
       <c r="H12" s="1">
-        <v>9213601</v>
+        <v>8767260</v>
       </c>
       <c r="I12" s="1">
-        <v>9250838</v>
+        <v>9134520</v>
       </c>
       <c r="J12" s="1">
-        <v>9224376</v>
+        <v>8931600</v>
       </c>
       <c r="K12" s="1">
-        <v>9158807</v>
+        <v>9084690</v>
       </c>
       <c r="L12" s="1">
-        <v>9355170</v>
+        <v>9493935</v>
       </c>
       <c r="M12" s="1">
-        <v>9420433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9351615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>2725848</v>
+        <v>2732423</v>
       </c>
       <c r="C13" s="1">
-        <v>2709712</v>
+        <v>2848914</v>
       </c>
       <c r="D13" s="1">
-        <v>9285788</v>
+        <v>2786999</v>
       </c>
       <c r="E13" s="1">
-        <v>2753334</v>
+        <v>2459391</v>
       </c>
       <c r="F13" s="1">
-        <v>2731147</v>
+        <v>2510364</v>
       </c>
       <c r="G13" s="1">
-        <v>2710347</v>
+        <v>2479972</v>
       </c>
       <c r="H13" s="1">
-        <v>2708850</v>
+        <v>2598877</v>
       </c>
       <c r="I13" s="1">
-        <v>2719798</v>
+        <v>2717782</v>
       </c>
       <c r="J13" s="1">
-        <v>2712018</v>
+        <v>2664931</v>
       </c>
       <c r="K13" s="1">
-        <v>2692740</v>
+        <v>2707352</v>
       </c>
       <c r="L13" s="1">
-        <v>2750472</v>
+        <v>2830539</v>
       </c>
       <c r="M13" s="1">
-        <v>2769660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2746460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>25203389</v>
+        <v>25213784</v>
       </c>
       <c r="C14" s="1">
-        <v>25054193</v>
+        <v>26269676</v>
       </c>
       <c r="D14" s="1">
-        <v>2730073</v>
+        <v>25797484</v>
       </c>
       <c r="E14" s="1">
-        <v>25457524</v>
+        <v>22734462</v>
       </c>
       <c r="F14" s="1">
-        <v>25252386</v>
+        <v>23216088</v>
       </c>
       <c r="G14" s="1">
-        <v>25060061</v>
+        <v>22790275</v>
       </c>
       <c r="H14" s="1">
-        <v>25046223</v>
+        <v>23778988</v>
       </c>
       <c r="I14" s="1">
-        <v>25147447</v>
+        <v>24767701</v>
       </c>
       <c r="J14" s="1">
-        <v>25075514</v>
+        <v>24203933</v>
       </c>
       <c r="K14" s="1">
-        <v>24897271</v>
+        <v>24600299</v>
       </c>
       <c r="L14" s="1">
-        <v>25431064</v>
+        <v>25989443</v>
       </c>
       <c r="M14" s="1">
-        <v>25608474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+        <v>25708867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>2499708</v>
+        <v>2628000</v>
       </c>
       <c r="C15" s="1">
-        <v>2484910</v>
+        <v>2744000</v>
       </c>
       <c r="D15" s="1">
-        <v>25242455</v>
+        <v>2690000</v>
       </c>
       <c r="E15" s="1">
-        <v>2524913</v>
+        <v>2370000</v>
       </c>
       <c r="F15" s="1">
-        <v>2504568</v>
+        <v>2450000</v>
       </c>
       <c r="G15" s="1">
-        <v>2485493</v>
+        <v>2410000</v>
       </c>
       <c r="H15" s="1">
-        <v>2484120</v>
+        <v>2520000</v>
       </c>
       <c r="I15" s="1">
-        <v>2494160</v>
+        <v>2630000</v>
       </c>
       <c r="J15" s="1">
-        <v>2487025</v>
+        <v>2570000</v>
       </c>
       <c r="K15" s="1">
-        <v>2469347</v>
+        <v>2610000</v>
       </c>
       <c r="L15" s="1">
-        <v>2522289</v>
+        <v>2740000</v>
       </c>
       <c r="M15" s="1">
-        <v>2539885</v>
+        <v>2636000</v>
       </c>
     </row>
   </sheetData>
@@ -1151,18 +1125,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="B2:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,537 +1177,577 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
-        <v>175506750</v>
-      </c>
-      <c r="C2" s="1">
-        <v>163754000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>118492000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>110947000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>158186000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>178368100</v>
-      </c>
-      <c r="H2" s="1">
-        <v>303136750</v>
-      </c>
-      <c r="I2" s="1">
-        <v>161415000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>276166000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>171248750</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="B2">
+        <v>178056750</v>
+      </c>
+      <c r="C2">
+        <v>167949000</v>
+      </c>
+      <c r="D2">
+        <v>109747000</v>
+      </c>
+      <c r="E2">
+        <v>112171000</v>
+      </c>
+      <c r="F2">
+        <v>161467000</v>
+      </c>
+      <c r="G2">
+        <v>166113100</v>
+      </c>
+      <c r="H2">
+        <v>306211750</v>
+      </c>
+      <c r="I2">
+        <v>168560000</v>
+      </c>
+      <c r="J2">
+        <v>271419500</v>
+      </c>
+      <c r="K2">
+        <v>172213750</v>
+      </c>
+      <c r="L2">
         <v>181933000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>166587500</v>
-      </c>
-      <c r="C3" s="1">
-        <v>172650000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>87135000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>56125000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>119747500</v>
-      </c>
-      <c r="G3" s="1">
-        <v>121905000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>178220000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>186130000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>157185000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>120825000</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="B3">
+        <v>164437500</v>
+      </c>
+      <c r="C3">
+        <v>170250000</v>
+      </c>
+      <c r="D3">
+        <v>88935000</v>
+      </c>
+      <c r="E3">
+        <v>62075000</v>
+      </c>
+      <c r="F3">
+        <v>112272500</v>
+      </c>
+      <c r="G3">
+        <v>101890000</v>
+      </c>
+      <c r="H3">
+        <v>176905000</v>
+      </c>
+      <c r="I3">
+        <v>201850000</v>
+      </c>
+      <c r="J3">
+        <v>158335000</v>
+      </c>
+      <c r="K3">
+        <v>121825000</v>
+      </c>
+      <c r="L3">
         <v>82670000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>72074000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>64755000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>36190000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>53815000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45035000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>60287000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25612000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6950000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>51905000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>51182000</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="B4">
+        <v>95408000</v>
+      </c>
+      <c r="C4">
+        <v>93528000</v>
+      </c>
+      <c r="D4">
+        <v>71134000</v>
+      </c>
+      <c r="E4">
+        <v>59937500</v>
+      </c>
+      <c r="F4">
+        <v>62019490</v>
+      </c>
+      <c r="G4">
+        <v>68809100</v>
+      </c>
+      <c r="H4">
+        <v>24024100</v>
+      </c>
+      <c r="I4">
+        <v>7800000</v>
+      </c>
+      <c r="J4">
+        <v>47747900</v>
+      </c>
+      <c r="K4">
+        <v>51179100</v>
+      </c>
+      <c r="L4">
         <v>12315000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>7100000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1500000</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>34500000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>7125000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>8625000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>2925000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>8775000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>43700000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>5900000</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>3650000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>146250000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>116400000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>62700000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>47500000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>71700000</v>
       </c>
-      <c r="G6" s="1">
-        <v>164250000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>151050000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>77200000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>139600000</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="G6">
+        <v>159100000</v>
+      </c>
+      <c r="H6">
+        <v>140750000</v>
+      </c>
+      <c r="I6">
+        <v>116300000</v>
+      </c>
+      <c r="J6">
+        <v>115950000</v>
+      </c>
+      <c r="K6">
         <v>80850000</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>106800000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>20100000</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>50000000</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>33435000</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>11000000</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>43000000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>61225000</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>132961100</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1100000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2000000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>2700000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>520000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>1920000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>94955000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>27000000</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9">
         <v>25000000</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1">
-        <v>106250000</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>58250000</v>
+      </c>
+      <c r="C10">
         <v>3000000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>24000000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>355000000</v>
       </c>
-      <c r="F10" s="1">
-        <v>141484000</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10">
+        <v>115500000</v>
+      </c>
+      <c r="G10">
         <v>55125000</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>75000000</v>
       </c>
-      <c r="I10" s="1">
-        <v>64000000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>98500000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>121500000</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>127000000</v>
+      </c>
+      <c r="J10">
+        <v>35500000</v>
+      </c>
+      <c r="K10">
+        <v>133500000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>85552000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>130235000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>115402000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>203875000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>68000000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>110336500</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>78000000</v>
       </c>
-      <c r="I12" s="1">
-        <v>38650000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>20700000</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12">
+        <v>59350000</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>114239000</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>82226500</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>5250000</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>18192000</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>9503500</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1400000</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>51984000</v>
+      </c>
+      <c r="G14">
         <v>26000000</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14">
         <v>26000000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14">
         <v>26000000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14">
         <v>26000000</v>
       </c>
-      <c r="J14" s="1">
-        <v>26000000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>26000000</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="K14">
+        <v>26690000</v>
+      </c>
+      <c r="L14">
         <v>13000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1">
-        <v>4154002.04</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4913999.13</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5415590.0899999999</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5644097.0700000003</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <f>5699502.02+387276.98</f>
-        <v>6086779</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6300223.2699999996</v>
-      </c>
-      <c r="I15" s="1">
-        <f>6980482.86+7575836.13</f>
-        <v>14556318.99</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7842244.8200000003</v>
-      </c>
-      <c r="K15" s="1">
-        <v>8389069.3200000003</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="B15">
+        <v>4231497.5200000005</v>
+      </c>
+      <c r="C15">
+        <v>5079246.74</v>
+      </c>
+      <c r="D15">
+        <v>5746025.0899999999</v>
+      </c>
+      <c r="E15">
+        <v>5902685.7000000002</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>6359633</v>
+      </c>
+      <c r="H15">
+        <v>6749558.0299999993</v>
+      </c>
+      <c r="I15">
+        <v>15547661.630000001</v>
+      </c>
+      <c r="J15">
+        <v>8719724.75</v>
+      </c>
+      <c r="K15">
+        <v>8938621.9900000002</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
     </row>

--- a/data-penerimaan-2025.xlsx
+++ b/data-penerimaan-2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18660708-80BD-4B94-8A7D-D295B41C1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A6DD98-0B1B-407E-ADA6-7761080C4FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M16" sqref="A16:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
     <col min="14" max="16" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -574,15 +574,14 @@
         <v>175247920</v>
       </c>
       <c r="L2" s="1">
-        <f>182768350+100000000</f>
         <v>282768350</v>
       </c>
       <c r="M2" s="1">
-        <f>181482390+72312786</f>
         <v>253795176</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -623,7 +622,7 @@
         <v>102561070</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -664,7 +663,7 @@
         <v>59141185</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -705,7 +704,7 @@
         <v>16620000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -746,7 +745,7 @@
         <v>150017140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -787,7 +786,7 @@
         <v>4275000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -828,7 +827,7 @@
         <v>48980480</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -869,7 +868,7 @@
         <v>16749800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -910,7 +909,7 @@
         <v>78048000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -951,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -992,7 +991,7 @@
         <v>9351615</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>2746460</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>25708867</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1113,6 +1112,30 @@
       </c>
       <c r="M15" s="1">
         <v>2636000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>516835617</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>7663436474</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="B2:M15"/>
     </sheetView>
   </sheetViews>

--- a/data-penerimaan-2025.xlsx
+++ b/data-penerimaan-2025.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390B5F8-5964-4895-9EAD-5C1A7AAD8F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DFEA0C-676D-4081-A787-C4DB6A1E5707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
     <sheet name="capaian" sheetId="2" r:id="rId2"/>
+    <sheet name="ikm" sheetId="3" r:id="rId3"/>
+    <sheet name="nps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>layanan</t>
   </si>
@@ -108,6 +110,36 @@
   </si>
   <si>
     <t>bagi_hasil</t>
+  </si>
+  <si>
+    <t>IKM</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>Triwulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triwulan </t>
+  </si>
+  <si>
+    <t>tertinggi</t>
+  </si>
+  <si>
+    <t>unsur_tertinggi</t>
+  </si>
+  <si>
+    <t>unsur_terendah</t>
+  </si>
+  <si>
+    <t>perilaku_petugas</t>
+  </si>
+  <si>
+    <t>prosedur</t>
+  </si>
+  <si>
+    <t>terendah</t>
   </si>
 </sst>
 </file>
@@ -118,7 +150,7 @@
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +166,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,17 +203,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -169,8 +228,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M16"/>
     </sheetView>
   </sheetViews>
@@ -599,7 +670,7 @@
       <c r="L2" s="2">
         <v>282768350</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>253795176</v>
       </c>
       <c r="O2" s="1"/>
@@ -641,7 +712,7 @@
       <c r="L3" s="2">
         <v>103080150</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>102561070</v>
       </c>
     </row>
@@ -682,7 +753,7 @@
       <c r="L4" s="2">
         <v>59933745</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>59141185</v>
       </c>
     </row>
@@ -723,7 +794,7 @@
       <c r="L5" s="2">
         <v>17100000</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>16620000</v>
       </c>
     </row>
@@ -764,7 +835,7 @@
       <c r="L6" s="2">
         <v>150822230</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>150017140</v>
       </c>
     </row>
@@ -805,7 +876,7 @@
       <c r="L7" s="2">
         <v>4305000</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>4275000</v>
       </c>
     </row>
@@ -846,7 +917,7 @@
       <c r="L8" s="2">
         <v>49785600</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>48980480</v>
       </c>
     </row>
@@ -887,7 +958,7 @@
       <c r="L9" s="2">
         <v>16818000</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>16749800</v>
       </c>
     </row>
@@ -928,7 +999,7 @@
       <c r="L10" s="2">
         <v>79460000</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>78048000</v>
       </c>
     </row>
@@ -969,7 +1040,7 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1010,7 +1081,7 @@
       <c r="L12" s="2">
         <v>9493935</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>9351615</v>
       </c>
     </row>
@@ -1051,7 +1122,7 @@
       <c r="L13" s="2">
         <v>2830539</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>2746460</v>
       </c>
     </row>
@@ -1092,7 +1163,7 @@
       <c r="L14" s="2">
         <v>25989443</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>25708867</v>
       </c>
     </row>
@@ -1133,7 +1204,7 @@
       <c r="L15" s="2">
         <v>2740000</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>2636000</v>
       </c>
     </row>
@@ -1182,13 +1253,13 @@
         <f t="shared" si="0"/>
         <v>805126992</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <f t="shared" si="0"/>
         <v>770630793</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>SUM(B16:M16)</f>
         <v>8200000000</v>
       </c>
@@ -1383,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H38"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,9 +1465,10 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1437,130 +1509,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>178056750</v>
+        <v>175506750</v>
       </c>
       <c r="C2" s="2">
-        <v>167949000</v>
+        <v>164754000</v>
       </c>
       <c r="D2" s="2">
-        <v>109747000</v>
+        <v>118492000</v>
       </c>
       <c r="E2" s="2">
-        <v>112171000</v>
+        <v>110947000</v>
       </c>
       <c r="F2" s="2">
-        <v>161467000</v>
+        <v>158186000</v>
       </c>
       <c r="G2" s="2">
-        <v>166113100</v>
+        <v>178368100</v>
       </c>
       <c r="H2" s="2">
-        <v>306211750</v>
+        <v>303136750</v>
       </c>
       <c r="I2" s="2">
-        <v>168560000</v>
+        <v>161415000</v>
       </c>
       <c r="J2" s="2">
-        <v>271419500</v>
+        <v>275816000</v>
       </c>
       <c r="K2" s="2">
-        <v>172213750</v>
+        <v>171233750</v>
       </c>
       <c r="L2" s="2">
-        <v>246552000</v>
+        <v>243557000</v>
       </c>
       <c r="M2" s="2">
-        <v>85390000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>273871250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>164437500</v>
+        <v>166587500</v>
       </c>
       <c r="C3" s="2">
-        <v>170250000</v>
+        <v>172650000</v>
       </c>
       <c r="D3" s="2">
-        <v>88935000</v>
+        <v>87135000</v>
       </c>
       <c r="E3" s="2">
-        <v>62075000</v>
+        <v>56125000</v>
       </c>
       <c r="F3" s="2">
-        <v>112272500</v>
+        <v>119747500</v>
       </c>
       <c r="G3" s="2">
-        <v>101890000</v>
+        <v>121905000</v>
       </c>
       <c r="H3" s="2">
-        <v>176905000</v>
+        <v>178220000</v>
       </c>
       <c r="I3" s="2">
-        <v>201850000</v>
+        <v>186130000</v>
       </c>
       <c r="J3" s="2">
-        <v>158335000</v>
+        <v>157185000</v>
       </c>
       <c r="K3" s="2">
-        <v>121825000</v>
+        <v>120825000</v>
       </c>
       <c r="L3" s="2">
         <v>109245000</v>
       </c>
       <c r="M3" s="2">
-        <v>31900000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>135830000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>95408000</v>
+        <v>72074000</v>
       </c>
       <c r="C4" s="2">
-        <v>93528000</v>
+        <v>64755000</v>
       </c>
       <c r="D4" s="2">
-        <v>71134000</v>
+        <v>36190000</v>
       </c>
       <c r="E4" s="2">
-        <v>59937500</v>
+        <v>53815000</v>
       </c>
       <c r="F4" s="2">
-        <v>62019490</v>
+        <v>45035000</v>
       </c>
       <c r="G4" s="2">
-        <v>68809100</v>
+        <v>60287000</v>
       </c>
       <c r="H4" s="2">
-        <v>24024100</v>
+        <v>25612000</v>
       </c>
       <c r="I4" s="2">
-        <v>7800000</v>
+        <v>6950000</v>
       </c>
       <c r="J4" s="2">
-        <v>47747900</v>
+        <v>51905000</v>
       </c>
       <c r="K4" s="2">
-        <v>51179100</v>
+        <v>51682000</v>
       </c>
       <c r="L4" s="2">
         <v>30295000</v>
       </c>
       <c r="M4" s="2">
-        <v>10130000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94505000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1601,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1621,16 +1693,16 @@
         <v>71700000</v>
       </c>
       <c r="G6" s="2">
-        <v>159100000</v>
+        <v>164250000</v>
       </c>
       <c r="H6" s="2">
-        <v>140750000</v>
+        <v>151050000</v>
       </c>
       <c r="I6" s="2">
-        <v>116300000</v>
+        <v>77200000</v>
       </c>
       <c r="J6" s="2">
-        <v>115950000</v>
+        <v>139600000</v>
       </c>
       <c r="K6" s="2">
         <v>80850000</v>
@@ -1639,10 +1711,10 @@
         <v>199500000</v>
       </c>
       <c r="M6" s="2">
-        <v>44050000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>168000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1680,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>78810000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1721,10 +1793,10 @@
         <v>132961100</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>62725000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1750,10 +1822,10 @@
         <v>27000000</v>
       </c>
       <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>25000000</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1765,12 +1837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>58250000</v>
+        <v>106250000</v>
       </c>
       <c r="C10" s="2">
         <v>3000000</v>
@@ -1782,7 +1854,7 @@
         <v>355000000</v>
       </c>
       <c r="F10" s="2">
-        <v>115500000</v>
+        <v>141484000</v>
       </c>
       <c r="G10" s="2">
         <v>55125000</v>
@@ -1791,10 +1863,10 @@
         <v>75000000</v>
       </c>
       <c r="I10" s="2">
-        <v>127000000</v>
+        <v>64000000</v>
       </c>
       <c r="J10" s="2">
-        <v>35500000</v>
+        <v>98500000</v>
       </c>
       <c r="K10" s="2">
         <v>133500000</v>
@@ -1803,10 +1875,10 @@
         <v>39500000</v>
       </c>
       <c r="M10" s="2">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>45500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1847,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1873,10 +1945,10 @@
         <v>78000000</v>
       </c>
       <c r="I12" s="2">
-        <v>59350000</v>
+        <v>38650000</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>20700000</v>
       </c>
       <c r="K12" s="2">
         <v>114239000</v>
@@ -1885,10 +1957,10 @@
         <v>147231500</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>83995000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1926,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21490000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1970,7 +2042,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2011,118 +2083,478 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>776735747.51999998</v>
+        <v>801001747.51999998</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ref="C16:M16" si="0">SUM(C2:C15)</f>
-        <v>689941246.74000001</v>
+        <v>660373246.74000001</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>531764025.08999997</v>
+        <v>503765025.08999997</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>881481185.70000005</v>
+        <v>868184685.70000005</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>651987990</v>
+        <v>665181500</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>797313333</v>
+        <v>826211233</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>863565408.02999997</v>
+        <v>873693308.02999997</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>756182661.63</v>
+        <v>584667661.63</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>786789124.75</v>
+        <v>926542724.75</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>758273971.99000001</v>
+        <v>756796871.99000001</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>1017068909.24</v>
+        <v>1014073909.24</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="0"/>
-        <v>190470000</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
+        <v>977726250</v>
+      </c>
+      <c r="N16" s="2">
+        <f>SUM(B16:M16)</f>
+        <v>9458218163.6899986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB7CB4-290F-4056-9EB5-F985A4D4009A}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>3.77</v>
+      </c>
+      <c r="C2">
+        <v>3.83</v>
+      </c>
+      <c r="D2">
+        <v>3.8</v>
+      </c>
+      <c r="E2">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>3.89</v>
+      </c>
+      <c r="C3">
+        <v>3.91</v>
+      </c>
+      <c r="D3">
+        <v>3.89</v>
+      </c>
+      <c r="E3">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>3.67</v>
+      </c>
+      <c r="C4">
+        <v>3.72</v>
+      </c>
+      <c r="D4">
+        <v>3.7</v>
+      </c>
+      <c r="E4">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A755596-8424-4CF4-8BAC-6884470DEE15}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>